--- a/Locators/city_lst.xlsx
+++ b/Locators/city_lst.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25825"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://empclaims.sharepoint.com/sites/AutomationTeam/Shared Documents/General/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{259A63EC-C8B8-47F5-AE94-E5DAE655CBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="list-cities-us-30j" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'list-cities-us-30j'!$A$1:$D$576</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'list-cities-us-30j'!$A$1:$D$575</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="371">
   <si>
     <t>SR.No</t>
   </si>
@@ -66,15 +60,6 @@
   </si>
   <si>
     <t>Huntsville</t>
-  </si>
-  <si>
-    <t>Anchorage</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>AK</t>
   </si>
   <si>
     <t>Phoenix</t>
@@ -1163,7 +1148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -1744,7 +1729,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1796,7 +1781,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1990,17 +1975,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D579"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D578"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="E284" sqref="E284"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2081,7 +2068,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -2095,147 +2082,147 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -2249,1197 +2236,1197 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>283</v>
+        <v>23</v>
       </c>
       <c r="B86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86" t="s">
         <v>97</v>
-      </c>
-      <c r="C86" t="s">
-        <v>29</v>
-      </c>
-      <c r="D86" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B87" t="s">
         <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D87" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D88" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D89" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B90" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D90" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C91" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D91" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D92" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B93" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B94" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D94" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C95" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D95" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B96" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C96" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D96" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>280</v>
+        <v>168</v>
       </c>
       <c r="B97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" t="s">
+        <v>109</v>
+      </c>
+      <c r="D97" t="s">
         <v>110</v>
-      </c>
-      <c r="C97" t="s">
-        <v>99</v>
-      </c>
-      <c r="D97" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="B98" t="s">
         <v>111</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D98" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B99" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D99" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B100" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D100" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>244</v>
+        <v>24</v>
       </c>
       <c r="B102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102" t="s">
         <v>117</v>
-      </c>
-      <c r="C102" t="s">
-        <v>112</v>
-      </c>
-      <c r="D102" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
         <v>118</v>
@@ -3453,357 +3440,357 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B104" t="s">
         <v>121</v>
       </c>
       <c r="C104" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D104" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B105" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C105" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D105" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B106" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C106" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D106" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B107" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C107" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D107" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B108" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C108" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D108" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B109" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D109" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B110" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C110" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D110" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B111" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C111" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D111" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B112" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C112" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D112" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B113" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C113" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D113" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="B114" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C114" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D114" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="B115" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C115" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D115" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B116" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C116" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D116" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B117" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C117" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D117" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="B118" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C118" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D118" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B119" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C119" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D119" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="B120" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C120" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D120" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B121" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C121" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D121" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B122" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C122" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D122" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="B123" t="s">
+        <v>140</v>
+      </c>
+      <c r="C123" t="s">
+        <v>141</v>
+      </c>
+      <c r="D123" t="s">
         <v>142</v>
-      </c>
-      <c r="C123" t="s">
-        <v>122</v>
-      </c>
-      <c r="D123" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="B124" t="s">
         <v>143</v>
       </c>
       <c r="C124" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D124" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B125" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C125" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D125" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="B126" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C126" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D126" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="B127" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C127" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D127" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="B128" t="s">
+        <v>147</v>
+      </c>
+      <c r="C128" t="s">
+        <v>148</v>
+      </c>
+      <c r="D128" t="s">
         <v>149</v>
-      </c>
-      <c r="C128" t="s">
-        <v>144</v>
-      </c>
-      <c r="D128" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B129" t="s">
         <v>150</v>
@@ -3817,7 +3804,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="B130" t="s">
         <v>153</v>
@@ -3831,371 +3818,371 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="B131" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="C131" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D131" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="B132" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="C132" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D132" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B133" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C133" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D133" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B134" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C134" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D134" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="B135" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C135" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D135" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B136" t="s">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="C136" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D136" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B137" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="C137" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D137" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>242</v>
+        <v>13</v>
       </c>
       <c r="B138" t="s">
+        <v>161</v>
+      </c>
+      <c r="C138" t="s">
+        <v>162</v>
+      </c>
+      <c r="D138" t="s">
         <v>163</v>
-      </c>
-      <c r="C138" t="s">
-        <v>157</v>
-      </c>
-      <c r="D138" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B139" t="s">
         <v>164</v>
       </c>
       <c r="C139" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D139" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="B140" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C140" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D140" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="B141" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C141" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D141" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>287</v>
+        <v>104</v>
       </c>
       <c r="B142" t="s">
+        <v>167</v>
+      </c>
+      <c r="C142" t="s">
+        <v>168</v>
+      </c>
+      <c r="D142" t="s">
         <v>169</v>
-      </c>
-      <c r="C142" t="s">
-        <v>165</v>
-      </c>
-      <c r="D142" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="B143" t="s">
         <v>170</v>
       </c>
       <c r="C143" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D143" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>197</v>
+        <v>284</v>
       </c>
       <c r="B144" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C144" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D144" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>284</v>
+        <v>49</v>
       </c>
       <c r="B145" t="s">
+        <v>172</v>
+      </c>
+      <c r="C145" t="s">
+        <v>173</v>
+      </c>
+      <c r="D145" t="s">
         <v>174</v>
-      </c>
-      <c r="C145" t="s">
-        <v>171</v>
-      </c>
-      <c r="D145" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="B146" t="s">
         <v>175</v>
       </c>
       <c r="C146" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D146" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="B147" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C147" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D147" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="B148" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C148" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D148" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B149" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C149" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D149" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="B150" t="s">
+        <v>179</v>
+      </c>
+      <c r="C150" t="s">
+        <v>180</v>
+      </c>
+      <c r="D150" t="s">
         <v>181</v>
-      </c>
-      <c r="C150" t="s">
-        <v>176</v>
-      </c>
-      <c r="D150" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B151" t="s">
         <v>182</v>
       </c>
       <c r="C151" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D151" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B152" t="s">
+        <v>183</v>
+      </c>
+      <c r="C152" t="s">
+        <v>184</v>
+      </c>
+      <c r="D152" t="s">
         <v>185</v>
-      </c>
-      <c r="C152" t="s">
-        <v>183</v>
-      </c>
-      <c r="D152" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B153" t="s">
         <v>186</v>
       </c>
       <c r="C153" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D153" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B154" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C154" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D154" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="B155" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C155" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D155" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="B156" t="s">
+        <v>189</v>
+      </c>
+      <c r="C156" t="s">
+        <v>190</v>
+      </c>
+      <c r="D156" t="s">
         <v>191</v>
-      </c>
-      <c r="C156" t="s">
-        <v>187</v>
-      </c>
-      <c r="D156" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B157" t="s">
         <v>192</v>
@@ -4209,301 +4196,301 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="B158" t="s">
         <v>195</v>
       </c>
       <c r="C158" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D158" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D159" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="C160" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D160" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B161" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C161" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D161" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>263</v>
+        <v>18</v>
       </c>
       <c r="B162" t="s">
+        <v>198</v>
+      </c>
+      <c r="C162" t="s">
+        <v>199</v>
+      </c>
+      <c r="D162" t="s">
         <v>200</v>
-      </c>
-      <c r="C162" t="s">
-        <v>196</v>
-      </c>
-      <c r="D162" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="B163" t="s">
         <v>201</v>
       </c>
       <c r="C163" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D163" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="B164" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C164" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D164" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B165" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C165" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D165" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="B166" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C166" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D166" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B167" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C167" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D167" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="B168" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C168" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D168" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>288</v>
+        <v>47</v>
       </c>
       <c r="B169" t="s">
+        <v>207</v>
+      </c>
+      <c r="C169" t="s">
+        <v>208</v>
+      </c>
+      <c r="D169" t="s">
         <v>209</v>
-      </c>
-      <c r="C169" t="s">
-        <v>202</v>
-      </c>
-      <c r="D169" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B170" t="s">
         <v>210</v>
       </c>
       <c r="C170" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D170" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>66</v>
+        <v>249</v>
       </c>
       <c r="B171" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C171" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D171" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="B172" t="s">
+        <v>212</v>
+      </c>
+      <c r="C172" t="s">
+        <v>213</v>
+      </c>
+      <c r="D172" t="s">
         <v>214</v>
-      </c>
-      <c r="C172" t="s">
-        <v>211</v>
-      </c>
-      <c r="D172" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="B173" t="s">
+        <v>176</v>
+      </c>
+      <c r="C173" t="s">
         <v>215</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>216</v>
-      </c>
-      <c r="D173" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B174" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="C174" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D174" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="B175" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="C175" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D175" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="B176" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="C176" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D176" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B177" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C177" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D177" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B178" t="s">
+        <v>220</v>
+      </c>
+      <c r="C178" t="s">
+        <v>221</v>
+      </c>
+      <c r="D178" t="s">
         <v>222</v>
-      </c>
-      <c r="C178" t="s">
-        <v>218</v>
-      </c>
-      <c r="D178" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="B179" t="s">
         <v>223</v>
@@ -4517,91 +4504,91 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B180" t="s">
         <v>226</v>
       </c>
       <c r="C180" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D180" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B181" t="s">
+        <v>227</v>
+      </c>
+      <c r="C181" t="s">
+        <v>228</v>
+      </c>
+      <c r="D181" t="s">
         <v>229</v>
-      </c>
-      <c r="C181" t="s">
-        <v>227</v>
-      </c>
-      <c r="D181" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B182" t="s">
         <v>230</v>
       </c>
       <c r="C182" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D182" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B183" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C183" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D183" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B184" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C184" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D184" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>95</v>
+        <v>241</v>
       </c>
       <c r="B185" t="s">
+        <v>233</v>
+      </c>
+      <c r="C185" t="s">
+        <v>234</v>
+      </c>
+      <c r="D185" t="s">
         <v>235</v>
-      </c>
-      <c r="C185" t="s">
-        <v>231</v>
-      </c>
-      <c r="D185" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>241</v>
+        <v>68</v>
       </c>
       <c r="B186" t="s">
         <v>236</v>
@@ -4615,609 +4602,609 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B187" t="s">
         <v>239</v>
       </c>
       <c r="C187" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D187" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="B188" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C188" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D188" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="B189" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C189" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D189" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="B190" t="s">
+        <v>242</v>
+      </c>
+      <c r="C190" t="s">
+        <v>243</v>
+      </c>
+      <c r="D190" t="s">
         <v>244</v>
       </c>
-      <c r="C190" t="s">
-        <v>240</v>
-      </c>
-      <c r="D190" t="s">
-        <v>241</v>
-      </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191">
-        <v>32</v>
+      <c r="A191" t="s">
+        <v>245</v>
       </c>
       <c r="B191" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C191" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D191" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" t="s">
+      <c r="C192" t="s">
+        <v>247</v>
+      </c>
+      <c r="D192" t="s">
         <v>248</v>
-      </c>
-      <c r="B192" t="s">
-        <v>249</v>
-      </c>
-      <c r="C192" t="s">
-        <v>246</v>
-      </c>
-      <c r="D192" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="B193" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C193" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D193" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="B194" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="C194" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D194" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B195" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="C195" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D195" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="B196" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C196" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D196" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="B197" t="s">
+        <v>252</v>
+      </c>
+      <c r="C197" t="s">
+        <v>253</v>
+      </c>
+      <c r="D197" t="s">
         <v>254</v>
-      </c>
-      <c r="C197" t="s">
-        <v>250</v>
-      </c>
-      <c r="D197" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B198" t="s">
         <v>255</v>
       </c>
       <c r="C198" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D198" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B199" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C199" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D199" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B200" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C200" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D200" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B201" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C201" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D201" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B202" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C202" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D202" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="B203" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C203" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D203" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="B204" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C204" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D204" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B205" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C205" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D205" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B206" t="s">
+        <v>263</v>
+      </c>
+      <c r="C206" t="s">
+        <v>264</v>
+      </c>
+      <c r="D206" t="s">
         <v>265</v>
-      </c>
-      <c r="C206" t="s">
-        <v>256</v>
-      </c>
-      <c r="D206" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="B207" t="s">
+        <v>143</v>
+      </c>
+      <c r="C207" t="s">
         <v>266</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>267</v>
-      </c>
-      <c r="D207" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B208" t="s">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="C208" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D208" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B209" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C209" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D209" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B210" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C210" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D210" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B211" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C211" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D211" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="B212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C212" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D212" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="B213" t="s">
+        <v>273</v>
+      </c>
+      <c r="C213" t="s">
+        <v>274</v>
+      </c>
+      <c r="D213" t="s">
         <v>275</v>
-      </c>
-      <c r="C213" t="s">
-        <v>269</v>
-      </c>
-      <c r="D213" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B214" t="s">
         <v>276</v>
       </c>
       <c r="C214" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D214" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="B215" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C215" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D215" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="B216" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C216" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D216" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>277</v>
+        <v>28</v>
       </c>
       <c r="B217" t="s">
+        <v>279</v>
+      </c>
+      <c r="C217" t="s">
+        <v>280</v>
+      </c>
+      <c r="D217" t="s">
         <v>281</v>
-      </c>
-      <c r="C217" t="s">
-        <v>277</v>
-      </c>
-      <c r="D217" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="B218" t="s">
         <v>282</v>
       </c>
       <c r="C218" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D218" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B219" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C219" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D219" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="B220" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C220" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D220" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="B221" t="s">
+        <v>285</v>
+      </c>
+      <c r="C221" t="s">
+        <v>286</v>
+      </c>
+      <c r="D221" t="s">
         <v>287</v>
-      </c>
-      <c r="C221" t="s">
-        <v>283</v>
-      </c>
-      <c r="D221" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B222" t="s">
         <v>288</v>
       </c>
       <c r="C222" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D222" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <v>61</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>289</v>
+      </c>
+      <c r="C223" t="s">
+        <v>286</v>
+      </c>
+      <c r="D223" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>245</v>
+      </c>
+      <c r="B224" t="s">
+        <v>290</v>
+      </c>
+      <c r="C224" t="s">
+        <v>286</v>
+      </c>
+      <c r="D224" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225">
+        <v>134</v>
+      </c>
+      <c r="B225" t="s">
         <v>291</v>
       </c>
-      <c r="C223" t="s">
-        <v>289</v>
-      </c>
-      <c r="D223" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224">
-        <v>222</v>
-      </c>
-      <c r="B224" t="s">
+      <c r="C225" t="s">
         <v>292</v>
       </c>
-      <c r="C224" t="s">
-        <v>289</v>
-      </c>
-      <c r="D224" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" t="s">
-        <v>248</v>
-      </c>
-      <c r="B225" t="s">
+      <c r="D225" t="s">
         <v>293</v>
-      </c>
-      <c r="C225" t="s">
-        <v>289</v>
-      </c>
-      <c r="D225" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="B226" t="s">
+        <v>219</v>
+      </c>
+      <c r="C226" t="s">
         <v>294</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>295</v>
-      </c>
-      <c r="D226" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="B227" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="C227" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D227" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="B228" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C228" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D228" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>278</v>
+        <v>149</v>
       </c>
       <c r="B229" t="s">
+        <v>298</v>
+      </c>
+      <c r="C229" t="s">
+        <v>299</v>
+      </c>
+      <c r="D229" t="s">
         <v>300</v>
-      </c>
-      <c r="C229" t="s">
-        <v>297</v>
-      </c>
-      <c r="D229" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="B230" t="s">
         <v>301</v>
@@ -5231,851 +5218,837 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B231" t="s">
         <v>304</v>
       </c>
       <c r="C231" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D231" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="B232" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C232" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D232" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B233" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C233" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D233" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="B234" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C234" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D234" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C235" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D235" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>234</v>
+        <v>4</v>
       </c>
       <c r="B236" t="s">
+        <v>309</v>
+      </c>
+      <c r="C236" t="s">
+        <v>310</v>
+      </c>
+      <c r="D236" t="s">
         <v>311</v>
-      </c>
-      <c r="C236" t="s">
-        <v>305</v>
-      </c>
-      <c r="D236" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B237" t="s">
         <v>312</v>
       </c>
       <c r="C237" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D237" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C238" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D238" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B239" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C239" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D239" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B240" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C240" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D240" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B241" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C241" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D241" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B242" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C242" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D242" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B243" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C243" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D243" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B244" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C244" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D244" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B245" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C245" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D245" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B246" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C246" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D246" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B247" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C247" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D247" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B248" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C248" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D248" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B249" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C249" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D249" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B250" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C250" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D250" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B251" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C251" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D251" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="B252" t="s">
-        <v>329</v>
+        <v>67</v>
       </c>
       <c r="C252" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D252" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B253" t="s">
-        <v>70</v>
+        <v>327</v>
       </c>
       <c r="C253" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D253" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B254" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C254" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D254" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B255" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C255" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D255" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B256" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C256" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D256" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B257" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C257" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D257" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B258" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C258" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D258" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B259" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C259" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D259" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B260" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C260" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D260" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B261" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C261" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D261" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B262" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C262" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D262" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B263" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C263" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D263" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="B264" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C264" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D264" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C265" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D265" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B266" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C266" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D266" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B267" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C267" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D267" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268">
-        <v>275</v>
+        <v>124</v>
       </c>
       <c r="B268" t="s">
+        <v>342</v>
+      </c>
+      <c r="C268" t="s">
+        <v>343</v>
+      </c>
+      <c r="D268" t="s">
         <v>344</v>
-      </c>
-      <c r="C268" t="s">
-        <v>313</v>
-      </c>
-      <c r="D268" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="B269" t="s">
         <v>345</v>
       </c>
       <c r="C269" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D269" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="B270" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C270" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D270" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="B271" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C271" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D271" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="B272" t="s">
+        <v>348</v>
+      </c>
+      <c r="C272" t="s">
+        <v>349</v>
+      </c>
+      <c r="D272" t="s">
         <v>350</v>
-      </c>
-      <c r="C272" t="s">
-        <v>346</v>
-      </c>
-      <c r="D272" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B273" t="s">
         <v>351</v>
       </c>
       <c r="C273" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D273" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B274" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C274" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D274" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B275" t="s">
-        <v>355</v>
+        <v>86</v>
       </c>
       <c r="C275" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D275" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="B276" t="s">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="C276" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D276" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="B277" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C277" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D277" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B278" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C278" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D278" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="B279" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C279" t="s">
-        <v>352</v>
+        <v>115</v>
       </c>
       <c r="D279" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="B280" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C280" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D280" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B281" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C281" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D281" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="B282" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C282" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D282" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="B283" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C283" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D283" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B284" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C284" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D284" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="B285" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C285" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D285" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286">
-        <v>269</v>
+        <v>30</v>
       </c>
       <c r="B286" t="s">
+        <v>364</v>
+      </c>
+      <c r="C286" t="s">
+        <v>365</v>
+      </c>
+      <c r="D286" t="s">
         <v>366</v>
-      </c>
-      <c r="C286" t="s">
-        <v>118</v>
-      </c>
-      <c r="D286" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B287" t="s">
         <v>367</v>
       </c>
       <c r="C287" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D287" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c r="B288" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C288" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D288" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C289" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D289" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="A290">
-        <v>289</v>
-      </c>
-      <c r="B290" t="s">
-        <v>372</v>
-      </c>
-      <c r="C290" t="s">
-        <v>368</v>
-      </c>
-      <c r="D290" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="579" spans="1:1">
-      <c r="A579" t="s">
-        <v>373</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C579">
+  <sortState ref="A2:C579">
     <sortCondition ref="C2:C579"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6083,12 +6056,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6257,19 +6227,46 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F777E21-214F-4F8C-9049-2FDD42BE977E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A51546-22C2-4C56-8F87-6BF1CC0A3A05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77344A96-909D-4541-94E6-500055433FC9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77344A96-909D-4541-94E6-500055433FC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="29598c6e-fa4c-4f7a-b260-531f49d7372f"/>
+    <ds:schemaRef ds:uri="1f0150d8-7584-4ed0-9738-99d80d4ab29e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A51546-22C2-4C56-8F87-6BF1CC0A3A05}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F777E21-214F-4F8C-9049-2FDD42BE977E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Locators/city_lst.xlsx
+++ b/Locators/city_lst.xlsx
@@ -10,7 +10,7 @@
     <sheet name="list-cities-us-30j" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'list-cities-us-30j'!$A$1:$D$575</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'list-cities-us-30j'!$A$1:$D$289</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="370">
   <si>
     <t>SR.No</t>
   </si>
@@ -1140,9 +1140,6 @@
   </si>
   <si>
     <t>Kenosha</t>
-  </si>
-  <si>
-    <t>For more other formats please visit: www.downloadexcelfiles.com</t>
   </si>
 </sst>
 </file>
@@ -1975,7 +1972,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1983,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D578"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="E284" sqref="E284"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="B290" sqref="B290:D578 A290:A577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6042,11 +6039,6 @@
         <v>366</v>
       </c>
     </row>
-    <row r="578" spans="1:1">
-      <c r="A578" t="s">
-        <v>370</v>
-      </c>
-    </row>
   </sheetData>
   <sortState ref="A2:C579">
     <sortCondition ref="C2:C579"/>
@@ -6056,9 +6048,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6227,19 +6222,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A51546-22C2-4C56-8F87-6BF1CC0A3A05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F777E21-214F-4F8C-9049-2FDD42BE977E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6264,9 +6255,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F777E21-214F-4F8C-9049-2FDD42BE977E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A51546-22C2-4C56-8F87-6BF1CC0A3A05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>